--- a/Data/ZoopSynth_biomass.xlsx
+++ b/Data/ZoopSynth_biomass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Zooplankton\FLOAT_MAST\R-analysis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Zooplankton\FLOAT_MAST\metrics_calculations\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BDE85A-0ABE-473E-86E3-7E5BBDD608A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619E84DF-A388-4E78-AB29-6A228BED1E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZoopSynth Micro-zooplankton" sheetId="2" r:id="rId1"/>
@@ -800,7 +800,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>13</v>
@@ -1329,16 +1329,16 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
